--- a/fias_loader/TESTS/Y_BUILD/05/_TEST_update_level_1.xlsx
+++ b/fias_loader/TESTS/Y_BUILD/05/_TEST_update_level_1.xlsx
@@ -4052,8 +4052,8 @@
   </sheetPr>
   <dimension ref="A1:AE1113"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A971" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D994" activeCellId="0" sqref="D994"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H291" activeCellId="0" sqref="H291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
